--- a/stcv.plot.coords.xlsx
+++ b/stcv.plot.coords.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\R-Projects\INGY\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -677,11 +684,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -693,7 +699,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -711,19 +717,329 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -737,3220 +1053,3220 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>193</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>46.8193</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>46.819299999999998</v>
+      </c>
+      <c r="E2">
         <v>-116.7349</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>193</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>46.819</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-116.7348</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>46.819000000000003</v>
+      </c>
+      <c r="E3">
+        <v>-116.73480000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>193</v>
       </c>
-      <c r="C4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>46.8188</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-116.7356</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>46.818800000000003</v>
+      </c>
+      <c r="E4">
+        <v>-116.73560000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>193</v>
       </c>
-      <c r="C5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>46.8191</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>46.819099999999999</v>
+      </c>
+      <c r="E5">
         <v>-116.7366</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>193</v>
       </c>
-      <c r="C6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>46.8193</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>46.819299999999998</v>
+      </c>
+      <c r="E6">
         <v>-116.7329</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>193</v>
       </c>
-      <c r="C7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>46.818</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>46.817999999999998</v>
+      </c>
+      <c r="E7">
         <v>-116.7317</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>193</v>
       </c>
-      <c r="C8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>46.8174</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>46.817399999999999</v>
+      </c>
+      <c r="E8">
         <v>-116.7321</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>194</v>
       </c>
-      <c r="C9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>45.9668</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>45.966799999999999</v>
+      </c>
+      <c r="E9">
         <v>-120.732</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>194</v>
       </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>45.9665</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-120.7335</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>45.966500000000003</v>
+      </c>
+      <c r="E10">
+        <v>-120.73350000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>194</v>
       </c>
-      <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>45.9661</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>45.966099999999997</v>
+      </c>
+      <c r="E11">
         <v>-120.7329</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>194</v>
       </c>
-      <c r="C12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>45.9656</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>45.965600000000002</v>
+      </c>
+      <c r="E12">
         <v>-120.7334</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>194</v>
       </c>
-      <c r="C13" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>45.9652</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-120.7352</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>45.965200000000003</v>
+      </c>
+      <c r="E13">
+        <v>-120.73520000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>194</v>
       </c>
-      <c r="C14" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>45.9653</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>45.965299999999999</v>
+      </c>
+      <c r="E14">
         <v>-120.7363</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>194</v>
       </c>
-      <c r="C15" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>45.9662</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>45.966200000000001</v>
+      </c>
+      <c r="E15">
         <v>-120.7354</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>195</v>
       </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>46.3821</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-116.2233</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>46.382100000000001</v>
+      </c>
+      <c r="E16">
+        <v>-116.22329999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>195</v>
       </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>46.3826</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>46.382599999999996</v>
+      </c>
+      <c r="E17">
         <v>-116.2229</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>195</v>
       </c>
-      <c r="C18" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>46.3833</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>46.383299999999998</v>
+      </c>
+      <c r="E18">
         <v>-116.2229</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>195</v>
       </c>
-      <c r="C19" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>46.3831</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>46.383099999999999</v>
+      </c>
+      <c r="E19">
         <v>-116.2214</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>195</v>
       </c>
-      <c r="C20" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>46.3832</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>46.383200000000002</v>
+      </c>
+      <c r="E20">
         <v>-116.2209</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>195</v>
       </c>
-      <c r="C21" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>46.3831</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>46.383099999999999</v>
+      </c>
+      <c r="E21">
         <v>-116.2199</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>195</v>
       </c>
-      <c r="C22" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>46.3828</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>46.382800000000003</v>
+      </c>
+      <c r="E22">
         <v>-116.2204</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>196</v>
       </c>
-      <c r="C23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>46.5976</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-115.8813</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>196</v>
       </c>
-      <c r="C24" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>46.5979</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>46.597900000000003</v>
+      </c>
+      <c r="E24">
         <v>-115.88</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>196</v>
       </c>
-      <c r="C25" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>46.5986</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>46.598599999999998</v>
+      </c>
+      <c r="E25">
         <v>-115.879</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>196</v>
       </c>
-      <c r="C26" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>46.5993</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>46.599299999999999</v>
+      </c>
+      <c r="E26">
         <v>-115.8802</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>196</v>
       </c>
-      <c r="C27" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>46.5993</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-115.8795</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>46.599299999999999</v>
+      </c>
+      <c r="E27">
+        <v>-115.87949999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
         <v>196</v>
       </c>
-      <c r="C28" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>46.601</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>46.600999999999999</v>
+      </c>
+      <c r="E28">
         <v>-115.8797</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>196</v>
       </c>
-      <c r="C29" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>46.6005</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-115.8816</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>46.600499999999997</v>
+      </c>
+      <c r="E29">
+        <v>-115.88160000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
         <v>197</v>
       </c>
-      <c r="C30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>48.0058</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>48.005800000000001</v>
+      </c>
+      <c r="E30">
         <v>-117.7612</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>197</v>
       </c>
-      <c r="C31" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>48.0058</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>48.005800000000001</v>
+      </c>
+      <c r="E31">
         <v>-117.7625</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>197</v>
       </c>
-      <c r="C32" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>48.0061</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>48.006100000000004</v>
+      </c>
+      <c r="E32">
         <v>-117.7634</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>197</v>
       </c>
-      <c r="C33" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
         <v>48.0062</v>
       </c>
-      <c r="E33" t="n">
-        <v>-117.7635</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33">
+        <v>-117.76349999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>197</v>
       </c>
-      <c r="C34" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>48.0061</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-117.7643</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>48.006100000000004</v>
+      </c>
+      <c r="E34">
+        <v>-117.76430000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>197</v>
       </c>
-      <c r="C35" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>48.0064</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>48.006399999999999</v>
+      </c>
+      <c r="E35">
         <v>-117.7612</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
         <v>197</v>
       </c>
-      <c r="C36" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
         <v>48.0062</v>
       </c>
-      <c r="E36" t="n">
-        <v>-117.7592</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36">
+        <v>-117.75920000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>198</v>
       </c>
-      <c r="C37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>48.1836</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>48.183599999999998</v>
+      </c>
+      <c r="E37">
         <v>-117.1279</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>198</v>
       </c>
-      <c r="C38" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>48.1833</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>48.183300000000003</v>
+      </c>
+      <c r="E38">
         <v>-117.127</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
         <v>198</v>
       </c>
-      <c r="C39" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
         <v>48.183</v>
       </c>
-      <c r="E39" t="n">
-        <v>-117.1274</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39">
+        <v>-117.12739999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>198</v>
       </c>
-      <c r="C40" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>48.1827</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>48.182699999999997</v>
+      </c>
+      <c r="E40">
         <v>-117.1281</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>198</v>
       </c>
-      <c r="C41" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>48.182</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-117.1282</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>48.182000000000002</v>
+      </c>
+      <c r="E41">
+        <v>-117.12820000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
         <v>198</v>
       </c>
-      <c r="C42" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>48.1817</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>48.181699999999999</v>
+      </c>
+      <c r="E42">
         <v>-117.1285</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
         <v>198</v>
       </c>
-      <c r="C43" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
         <v>48.1828</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-117.1296</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
         <v>199</v>
       </c>
-      <c r="C44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
         <v>47.759</v>
       </c>
-      <c r="E44" t="n">
-        <v>-114.7301</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="E44">
+        <v>-114.73009999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
         <v>199</v>
       </c>
-      <c r="C45" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>47.7593</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>47.759300000000003</v>
+      </c>
+      <c r="E45">
         <v>-114.7307</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
         <v>199</v>
       </c>
-      <c r="C46" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>47.7599</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>47.759900000000002</v>
+      </c>
+      <c r="E46">
         <v>-114.7311</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>199</v>
       </c>
-      <c r="C47" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>47.7603</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>47.760300000000001</v>
+      </c>
+      <c r="E47">
         <v>-114.7313</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>199</v>
       </c>
-      <c r="C48" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>47.7608</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>47.760800000000003</v>
+      </c>
+      <c r="E48">
         <v>-114.7313</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
         <v>199</v>
       </c>
-      <c r="C49" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>47.7621</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>47.762099999999997</v>
+      </c>
+      <c r="E49">
         <v>-114.7315</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
         <v>199</v>
       </c>
-      <c r="C50" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>47.7606</v>
-      </c>
-      <c r="E50" t="n">
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>47.760599999999997</v>
+      </c>
+      <c r="E50">
         <v>-114.7307</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
         <v>200</v>
       </c>
-      <c r="C51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>48.0773</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-117.8833</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>48.077300000000001</v>
+      </c>
+      <c r="E51">
+        <v>-117.88330000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
         <v>200</v>
       </c>
-      <c r="C52" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>48.0778</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-117.8838</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>48.077800000000003</v>
+      </c>
+      <c r="E52">
+        <v>-117.88379999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
         <v>200</v>
       </c>
-      <c r="C53" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>48.0772</v>
-      </c>
-      <c r="E53" t="n">
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>48.077199999999998</v>
+      </c>
+      <c r="E53">
         <v>-117.8841</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
         <v>200</v>
       </c>
-      <c r="C54" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>48.0767</v>
-      </c>
-      <c r="E54" t="n">
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>48.076700000000002</v>
+      </c>
+      <c r="E54">
         <v>-117.8841</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
         <v>200</v>
       </c>
-      <c r="C55" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>48.0769</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-117.885</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>48.076900000000002</v>
+      </c>
+      <c r="E55">
+        <v>-117.88500000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
         <v>200</v>
       </c>
-      <c r="C56" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
         <v>48.0777</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-117.8849</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
         <v>200</v>
       </c>
-      <c r="C57" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57">
         <v>48.0762</v>
       </c>
-      <c r="E57" t="n">
-        <v>-117.8842</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="E57">
+        <v>-117.88420000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="s">
         <v>201</v>
       </c>
-      <c r="C58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>48.162</v>
-      </c>
-      <c r="E58" t="n">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>48.161999999999999</v>
+      </c>
+      <c r="E58">
         <v>-117.6208</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="s">
         <v>201</v>
       </c>
-      <c r="C59" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>48.162</v>
-      </c>
-      <c r="E59" t="n">
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>48.161999999999999</v>
+      </c>
+      <c r="E59">
         <v>-117.6207</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
         <v>201</v>
       </c>
-      <c r="C60" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>48.1609</v>
-      </c>
-      <c r="E60" t="n">
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>48.160899999999998</v>
+      </c>
+      <c r="E60">
         <v>-117.6203</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
         <v>201</v>
       </c>
-      <c r="C61" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>48.1625</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-117.6218</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>48.162500000000001</v>
+      </c>
+      <c r="E61">
+        <v>-117.62179999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
         <v>201</v>
       </c>
-      <c r="C62" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>48.1627</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-117.6218</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>48.162700000000001</v>
+      </c>
+      <c r="E62">
+        <v>-117.62179999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
         <v>201</v>
       </c>
-      <c r="C63" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>48.1626</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-117.6226</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>48.162599999999998</v>
+      </c>
+      <c r="E63">
+        <v>-117.62260000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
         <v>201</v>
       </c>
-      <c r="C64" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>48.1625</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-117.6227</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>48.162500000000001</v>
+      </c>
+      <c r="E64">
+        <v>-117.62269999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
         <v>202</v>
       </c>
-      <c r="C65" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>46.8809</v>
-      </c>
-      <c r="E65" t="n">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>46.880899999999997</v>
+      </c>
+      <c r="E65">
         <v>-113.4562</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
         <v>202</v>
       </c>
-      <c r="C66" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>46.8811</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-113.4578</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>46.881100000000004</v>
+      </c>
+      <c r="E66">
+        <v>-113.45780000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
         <v>202</v>
       </c>
-      <c r="C67" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>46.8817</v>
-      </c>
-      <c r="E67" t="n">
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>46.881700000000002</v>
+      </c>
+      <c r="E67">
         <v>-113.4577</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
         <v>202</v>
       </c>
-      <c r="C68" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>46.8831</v>
-      </c>
-      <c r="E68" t="n">
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>46.883099999999999</v>
+      </c>
+      <c r="E68">
         <v>-113.4575</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
         <v>202</v>
       </c>
-      <c r="C69" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>46.8828</v>
-      </c>
-      <c r="E69" t="n">
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>46.882800000000003</v>
+      </c>
+      <c r="E69">
         <v>-113.455</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
         <v>202</v>
       </c>
-      <c r="C70" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>46.8819</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>46.881900000000002</v>
+      </c>
+      <c r="E70">
         <v>-113.4568</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
         <v>202</v>
       </c>
-      <c r="C71" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D71" t="n">
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71">
         <v>46.8797</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-113.4571</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
         <v>203</v>
       </c>
-      <c r="C72" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>46.7472</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-115.9244</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>46.747199999999999</v>
+      </c>
+      <c r="E72">
+        <v>-115.92440000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73" t="s">
         <v>203</v>
       </c>
-      <c r="C73" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>46.7478</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-115.9261</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>46.747799999999998</v>
+      </c>
+      <c r="E73">
+        <v>-115.92610000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
         <v>203</v>
       </c>
-      <c r="C74" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>46.7462</v>
-      </c>
-      <c r="E74" t="n">
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>46.746200000000002</v>
+      </c>
+      <c r="E74">
         <v>-115.9285</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75" t="s">
         <v>203</v>
       </c>
-      <c r="C75" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>46.7461</v>
-      </c>
-      <c r="E75" t="n">
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>46.746099999999998</v>
+      </c>
+      <c r="E75">
         <v>-115.9295</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
         <v>203</v>
       </c>
-      <c r="C76" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D76" t="n">
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
         <v>46.747</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-115.9289</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" t="s">
         <v>203</v>
       </c>
-      <c r="C77" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>46.7472</v>
-      </c>
-      <c r="E77" t="n">
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>46.747199999999999</v>
+      </c>
+      <c r="E77">
         <v>-115.9299</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
         <v>203</v>
       </c>
-      <c r="C78" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>46.7472</v>
-      </c>
-      <c r="E78" t="n">
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>46.747199999999999</v>
+      </c>
+      <c r="E78">
         <v>-115.9312</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" t="s">
         <v>204</v>
       </c>
-      <c r="C79" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>47.9357</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-114.7249</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>47.935699999999997</v>
+      </c>
+      <c r="E79">
+        <v>-114.72490000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80" t="s">
         <v>204</v>
       </c>
-      <c r="C80" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D80" t="n">
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
         <v>47.936</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-114.7243</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" t="s">
         <v>204</v>
       </c>
-      <c r="C81" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>47.9353</v>
-      </c>
-      <c r="E81" t="n">
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>47.935299999999998</v>
+      </c>
+      <c r="E81">
         <v>-114.7235</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
         <v>204</v>
       </c>
-      <c r="C82" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>47.9372</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-114.7237</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>47.937199999999997</v>
+      </c>
+      <c r="E82">
+        <v>-114.72369999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83" t="s">
         <v>204</v>
       </c>
-      <c r="C83" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>47.9378</v>
-      </c>
-      <c r="E83" t="n">
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>47.937800000000003</v>
+      </c>
+      <c r="E83">
         <v>-114.7231</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84" t="s">
         <v>204</v>
       </c>
-      <c r="C84" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D84" t="n">
+      <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="D84">
         <v>47.9373</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-114.7223</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85" t="s">
         <v>204</v>
       </c>
-      <c r="C85" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>47.9367</v>
-      </c>
-      <c r="E85" t="n">
+      <c r="C85">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>47.936700000000002</v>
+      </c>
+      <c r="E85">
         <v>-114.7223</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86" t="s">
         <v>205</v>
       </c>
-      <c r="C86" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>47.984</v>
-      </c>
-      <c r="E86" t="n">
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>47.984000000000002</v>
+      </c>
+      <c r="E86">
         <v>-117.8865</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="s">
         <v>205</v>
       </c>
-      <c r="C87" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D87" t="n">
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
         <v>47.9846</v>
       </c>
-      <c r="E87" t="n">
-        <v>-117.8868</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="E87">
+        <v>-117.88679999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="s">
         <v>205</v>
       </c>
-      <c r="C88" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>47.9851</v>
-      </c>
-      <c r="E88" t="n">
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>47.985100000000003</v>
+      </c>
+      <c r="E88">
         <v>-117.8874</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="s">
         <v>205</v>
       </c>
-      <c r="C89" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>47.9854</v>
-      </c>
-      <c r="E89" t="n">
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>47.985399999999998</v>
+      </c>
+      <c r="E89">
         <v>-117.8867</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="s">
         <v>205</v>
       </c>
-      <c r="C90" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>47.9858</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-117.8872</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>47.985799999999998</v>
+      </c>
+      <c r="E90">
+        <v>-117.88720000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91" t="s">
         <v>205</v>
       </c>
-      <c r="C91" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>47.9859</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-117.8864</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>47.985900000000001</v>
+      </c>
+      <c r="E91">
+        <v>-117.88639999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92" t="s">
         <v>205</v>
       </c>
-      <c r="C92" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>47.9865</v>
-      </c>
-      <c r="E92" t="n">
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>47.986499999999999</v>
+      </c>
+      <c r="E92">
         <v>-117.8857</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
         <v>206</v>
       </c>
-      <c r="C93" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>46.8905</v>
-      </c>
-      <c r="E93" t="n">
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>46.890500000000003</v>
+      </c>
+      <c r="E93">
         <v>-113.4307</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
         <v>206</v>
       </c>
-      <c r="C94" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>46.891</v>
-      </c>
-      <c r="E94" t="n">
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>46.890999999999998</v>
+      </c>
+      <c r="E94">
         <v>-113.4316</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="s">
         <v>206</v>
       </c>
-      <c r="C95" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>46.8909</v>
-      </c>
-      <c r="E95" t="n">
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>46.890900000000002</v>
+      </c>
+      <c r="E95">
         <v>-113.4325</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" t="s">
         <v>206</v>
       </c>
-      <c r="C96" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>46.8908</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-113.4334</v>
-      </c>
-    </row>
-    <row r="97">
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>46.890799999999999</v>
+      </c>
+      <c r="E96">
+        <v>-113.43340000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
         <v>206</v>
       </c>
-      <c r="C97" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>46.891</v>
-      </c>
-      <c r="E97" t="n">
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>46.890999999999998</v>
+      </c>
+      <c r="E97">
         <v>-113.4341</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="s">
         <v>206</v>
       </c>
-      <c r="C98" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>46.8916</v>
-      </c>
-      <c r="E98" t="n">
-        <v>-113.4339</v>
-      </c>
-    </row>
-    <row r="99">
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>46.891599999999997</v>
+      </c>
+      <c r="E98">
+        <v>-113.43389999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="s">
         <v>206</v>
       </c>
-      <c r="C99" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D99" t="n">
-        <v>46.8913</v>
-      </c>
-      <c r="E99" t="n">
+      <c r="C99">
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>46.891300000000001</v>
+      </c>
+      <c r="E99">
         <v>-113.4331</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="s">
         <v>207</v>
       </c>
-      <c r="C100" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>48.1133</v>
-      </c>
-      <c r="E100" t="n">
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>48.113300000000002</v>
+      </c>
+      <c r="E100">
         <v>-117.6228</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101" t="s">
         <v>207</v>
       </c>
-      <c r="C101" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>48.1131</v>
-      </c>
-      <c r="E101" t="n">
-        <v>-117.6227</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>48.113100000000003</v>
+      </c>
+      <c r="E101">
+        <v>-117.62269999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102" t="s">
         <v>207</v>
       </c>
-      <c r="C102" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D102" t="n">
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
         <v>48.1128</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-117.6221</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103" t="s">
         <v>207</v>
       </c>
-      <c r="C103" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>48.1119</v>
-      </c>
-      <c r="E103" t="n">
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>48.111899999999999</v>
+      </c>
+      <c r="E103">
         <v>-117.6223</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104" t="s">
         <v>207</v>
       </c>
-      <c r="C104" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D104" t="n">
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
         <v>48.1111</v>
       </c>
-      <c r="E104" t="n">
-        <v>-117.6227</v>
-      </c>
-    </row>
-    <row r="105">
+      <c r="E104">
+        <v>-117.62269999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105" t="s">
         <v>207</v>
       </c>
-      <c r="C105" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>48.1114</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-117.6231</v>
-      </c>
-    </row>
-    <row r="106">
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>48.111400000000003</v>
+      </c>
+      <c r="E105">
+        <v>-117.62309999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>108</v>
       </c>
       <c r="B106" t="s">
         <v>207</v>
       </c>
-      <c r="C106" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>48.1117</v>
-      </c>
-      <c r="E106" t="n">
+      <c r="C106">
+        <v>7</v>
+      </c>
+      <c r="D106">
+        <v>48.111699999999999</v>
+      </c>
+      <c r="E106">
         <v>-117.624</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107" t="s">
         <v>208</v>
       </c>
-      <c r="C107" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D107" t="n">
-        <v>48.0096</v>
-      </c>
-      <c r="E107" t="n">
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>48.009599999999999</v>
+      </c>
+      <c r="E107">
         <v>-114.682</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108" t="s">
         <v>208</v>
       </c>
-      <c r="C108" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>48.0095</v>
-      </c>
-      <c r="E108" t="n">
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>48.009500000000003</v>
+      </c>
+      <c r="E108">
         <v>-114.6812</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109" t="s">
         <v>208</v>
       </c>
-      <c r="C109" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>48.0091</v>
-      </c>
-      <c r="E109" t="n">
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>48.009099999999997</v>
+      </c>
+      <c r="E109">
         <v>-114.6807</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110" t="s">
         <v>208</v>
       </c>
-      <c r="C110" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>48.0081</v>
-      </c>
-      <c r="E110" t="n">
-        <v>-114.6817</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>48.008099999999999</v>
+      </c>
+      <c r="E110">
+        <v>-114.68170000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111" t="s">
         <v>208</v>
       </c>
-      <c r="C111" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>48.0085</v>
-      </c>
-      <c r="E111" t="n">
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>48.008499999999998</v>
+      </c>
+      <c r="E111">
         <v>-114.6814</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112" t="s">
         <v>208</v>
       </c>
-      <c r="C112" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>48.0101</v>
-      </c>
-      <c r="E112" t="n">
+      <c r="C112">
+        <v>6</v>
+      </c>
+      <c r="D112">
+        <v>48.010100000000001</v>
+      </c>
+      <c r="E112">
         <v>-114.6815</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113" t="s">
         <v>208</v>
       </c>
-      <c r="C113" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>48.0112</v>
-      </c>
-      <c r="E113" t="n">
+      <c r="C113">
+        <v>7</v>
+      </c>
+      <c r="D113">
+        <v>48.011200000000002</v>
+      </c>
+      <c r="E113">
         <v>-114.6815</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114" t="s">
         <v>209</v>
       </c>
-      <c r="C114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>46.7797</v>
-      </c>
-      <c r="E114" t="n">
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>46.779699999999998</v>
+      </c>
+      <c r="E114">
         <v>-120.9628</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>117</v>
       </c>
       <c r="B115" t="s">
         <v>209</v>
       </c>
-      <c r="C115" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>46.7794</v>
-      </c>
-      <c r="E115" t="n">
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>46.779400000000003</v>
+      </c>
+      <c r="E115">
         <v>-120.9637</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="s">
         <v>209</v>
       </c>
-      <c r="C116" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D116" t="n">
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
         <v>46.7789</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>-120.9648</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>119</v>
       </c>
       <c r="B117" t="s">
         <v>209</v>
       </c>
-      <c r="C117" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>46.7787</v>
-      </c>
-      <c r="E117" t="n">
-        <v>-120.9656</v>
-      </c>
-    </row>
-    <row r="118">
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>46.778700000000001</v>
+      </c>
+      <c r="E117">
+        <v>-120.96559999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>120</v>
       </c>
       <c r="B118" t="s">
         <v>209</v>
       </c>
-      <c r="C118" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>46.7801</v>
-      </c>
-      <c r="E118" t="n">
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>46.780099999999997</v>
+      </c>
+      <c r="E118">
         <v>-120.9627</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>121</v>
       </c>
       <c r="B119" t="s">
         <v>209</v>
       </c>
-      <c r="C119" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D119" t="n">
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="D119">
         <v>46.7806</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>-120.9619</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>122</v>
       </c>
       <c r="B120" t="s">
         <v>209</v>
       </c>
-      <c r="C120" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>46.7784</v>
-      </c>
-      <c r="E120" t="n">
-        <v>-120.9617</v>
-      </c>
-    </row>
-    <row r="121">
+      <c r="C120">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>46.778399999999998</v>
+      </c>
+      <c r="E120">
+        <v>-120.96169999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121" t="s">
         <v>210</v>
       </c>
-      <c r="C121" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>47.0596</v>
-      </c>
-      <c r="E121" t="n">
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>47.059600000000003</v>
+      </c>
+      <c r="E121">
         <v>-116.9623</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122" t="s">
         <v>210</v>
       </c>
-      <c r="C122" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>47.0592</v>
-      </c>
-      <c r="E122" t="n">
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>47.059199999999997</v>
+      </c>
+      <c r="E122">
         <v>-116.9623</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123" t="s">
         <v>210</v>
       </c>
-      <c r="C123" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>47.0582</v>
-      </c>
-      <c r="E123" t="n">
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>47.058199999999999</v>
+      </c>
+      <c r="E123">
         <v>-116.9631</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124" t="s">
         <v>210</v>
       </c>
-      <c r="C124" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D124" t="n">
-        <v>47.0575</v>
-      </c>
-      <c r="E124" t="n">
-        <v>-116.9625</v>
-      </c>
-    </row>
-    <row r="125">
+      <c r="C124">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>47.057499999999997</v>
+      </c>
+      <c r="E124">
+        <v>-116.96250000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>127</v>
       </c>
       <c r="B125" t="s">
         <v>210</v>
       </c>
-      <c r="C125" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D125" t="n">
-        <v>47.0577</v>
-      </c>
-      <c r="E125" t="n">
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>47.057699999999997</v>
+      </c>
+      <c r="E125">
         <v>-116.9632</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>128</v>
       </c>
       <c r="B126" t="s">
         <v>210</v>
       </c>
-      <c r="C126" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>47.0611</v>
-      </c>
-      <c r="E126" t="n">
-        <v>-116.9613</v>
-      </c>
-    </row>
-    <row r="127">
+      <c r="C126">
+        <v>6</v>
+      </c>
+      <c r="D126">
+        <v>47.061100000000003</v>
+      </c>
+      <c r="E126">
+        <v>-116.96129999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>129</v>
       </c>
       <c r="B127" t="s">
         <v>210</v>
       </c>
-      <c r="C127" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>47.0566</v>
-      </c>
-      <c r="E127" t="n">
-        <v>-116.9621</v>
-      </c>
-    </row>
-    <row r="128">
+      <c r="C127">
+        <v>7</v>
+      </c>
+      <c r="D127">
+        <v>47.056600000000003</v>
+      </c>
+      <c r="E127">
+        <v>-116.96210000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>130</v>
       </c>
       <c r="B128" t="s">
         <v>211</v>
       </c>
-      <c r="C128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D128" t="n">
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
         <v>47.9786</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>-117.9248</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>131</v>
       </c>
       <c r="B129" t="s">
         <v>211</v>
       </c>
-      <c r="C129" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>47.9787</v>
-      </c>
-      <c r="E129" t="n">
-        <v>-117.9257</v>
-      </c>
-    </row>
-    <row r="130">
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>47.978700000000003</v>
+      </c>
+      <c r="E129">
+        <v>-117.92570000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>132</v>
       </c>
       <c r="B130" t="s">
         <v>211</v>
       </c>
-      <c r="C130" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D130" t="n">
-        <v>47.9794</v>
-      </c>
-      <c r="E130" t="n">
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>47.979399999999998</v>
+      </c>
+      <c r="E130">
         <v>-117.9247</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>133</v>
       </c>
       <c r="B131" t="s">
         <v>211</v>
       </c>
-      <c r="C131" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>47.9794</v>
-      </c>
-      <c r="E131" t="n">
+      <c r="C131">
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <v>47.979399999999998</v>
+      </c>
+      <c r="E131">
         <v>-117.926</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132" t="s">
         <v>211</v>
       </c>
-      <c r="C132" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D132" t="n">
-        <v>47.9796</v>
-      </c>
-      <c r="E132" t="n">
+      <c r="C132">
+        <v>5</v>
+      </c>
+      <c r="D132">
+        <v>47.979599999999998</v>
+      </c>
+      <c r="E132">
         <v>-117.9268</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>135</v>
       </c>
       <c r="B133" t="s">
         <v>211</v>
       </c>
-      <c r="C133" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>47.9792</v>
-      </c>
-      <c r="E133" t="n">
+      <c r="C133">
+        <v>6</v>
+      </c>
+      <c r="D133">
+        <v>47.979199999999999</v>
+      </c>
+      <c r="E133">
         <v>-117.9271</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>136</v>
       </c>
       <c r="B134" t="s">
         <v>211</v>
       </c>
-      <c r="C134" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D134" t="n">
-        <v>47.9795</v>
-      </c>
-      <c r="E134" t="n">
+      <c r="C134">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>47.979500000000002</v>
+      </c>
+      <c r="E134">
         <v>-117.928</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>137</v>
       </c>
       <c r="B135" t="s">
         <v>212</v>
       </c>
-      <c r="C135" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D135" t="n">
-        <v>47.0935</v>
-      </c>
-      <c r="E135" t="n">
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>47.093499999999999</v>
+      </c>
+      <c r="E135">
         <v>-114.0693</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>138</v>
       </c>
       <c r="B136" t="s">
         <v>212</v>
       </c>
-      <c r="C136" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D136" t="n">
-        <v>47.0925</v>
-      </c>
-      <c r="E136" t="n">
-        <v>-114.0687</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>47.092500000000001</v>
+      </c>
+      <c r="E136">
+        <v>-114.06870000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>139</v>
       </c>
       <c r="B137" t="s">
         <v>212</v>
       </c>
-      <c r="C137" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D137" t="n">
-        <v>47.0932</v>
-      </c>
-      <c r="E137" t="n">
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>47.093200000000003</v>
+      </c>
+      <c r="E137">
         <v>-114.07</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>140</v>
       </c>
       <c r="B138" t="s">
         <v>212</v>
       </c>
-      <c r="C138" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D138" t="n">
-        <v>47.0936</v>
-      </c>
-      <c r="E138" t="n">
+      <c r="C138">
+        <v>4</v>
+      </c>
+      <c r="D138">
+        <v>47.093600000000002</v>
+      </c>
+      <c r="E138">
         <v>-114.0706</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>141</v>
       </c>
       <c r="B139" t="s">
         <v>212</v>
       </c>
-      <c r="C139" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>47.0933</v>
-      </c>
-      <c r="E139" t="n">
-        <v>-114.0709</v>
-      </c>
-    </row>
-    <row r="140">
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>47.093299999999999</v>
+      </c>
+      <c r="E139">
+        <v>-114.07089999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>142</v>
       </c>
       <c r="B140" t="s">
         <v>212</v>
       </c>
-      <c r="C140" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>47.0932</v>
-      </c>
-      <c r="E140" t="n">
+      <c r="C140">
+        <v>6</v>
+      </c>
+      <c r="D140">
+        <v>47.093200000000003</v>
+      </c>
+      <c r="E140">
         <v>-114.0716</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>143</v>
       </c>
       <c r="B141" t="s">
         <v>212</v>
       </c>
-      <c r="C141" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D141" t="n">
-        <v>47.0932</v>
-      </c>
-      <c r="E141" t="n">
-        <v>-114.0704</v>
-      </c>
-    </row>
-    <row r="142">
+      <c r="C141">
+        <v>7</v>
+      </c>
+      <c r="D141">
+        <v>47.093200000000003</v>
+      </c>
+      <c r="E141">
+        <v>-114.07040000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>144</v>
       </c>
       <c r="B142" t="s">
         <v>213</v>
       </c>
-      <c r="C142" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>47.7658</v>
-      </c>
-      <c r="E142" t="n">
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>47.765799999999999</v>
+      </c>
+      <c r="E142">
         <v>-114.5</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>145</v>
       </c>
       <c r="B143" t="s">
         <v>213</v>
       </c>
-      <c r="C143" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D143" t="n">
-        <v>47.7657</v>
-      </c>
-      <c r="E143" t="n">
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>47.765700000000002</v>
+      </c>
+      <c r="E143">
         <v>-114.4997</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>146</v>
       </c>
       <c r="B144" t="s">
         <v>213</v>
       </c>
-      <c r="C144" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D144" t="n">
-        <v>47.7656</v>
-      </c>
-      <c r="E144" t="n">
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>47.765599999999999</v>
+      </c>
+      <c r="E144">
         <v>-114.5009</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>147</v>
       </c>
       <c r="B145" t="s">
         <v>213</v>
       </c>
-      <c r="C145" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D145" t="n">
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145">
         <v>47.7667</v>
       </c>
-      <c r="E145" t="n">
-        <v>-114.4989</v>
-      </c>
-    </row>
-    <row r="146">
+      <c r="E145">
+        <v>-114.49890000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>148</v>
       </c>
       <c r="B146" t="s">
         <v>213</v>
       </c>
-      <c r="C146" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D146" t="n">
-        <v>47.7649</v>
-      </c>
-      <c r="E146" t="n">
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>47.764899999999997</v>
+      </c>
+      <c r="E146">
         <v>-114.4986</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" t="s">
         <v>213</v>
       </c>
-      <c r="C147" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D147" t="n">
+      <c r="C147">
+        <v>6</v>
+      </c>
+      <c r="D147">
         <v>47.7654</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>-114.498</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>150</v>
       </c>
       <c r="B148" t="s">
         <v>213</v>
       </c>
-      <c r="C148" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D148" t="n">
-        <v>47.7658</v>
-      </c>
-      <c r="E148" t="n">
+      <c r="C148">
+        <v>7</v>
+      </c>
+      <c r="D148">
+        <v>47.765799999999999</v>
+      </c>
+      <c r="E148">
         <v>-114.4982</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>151</v>
       </c>
       <c r="B149" t="s">
         <v>214</v>
       </c>
-      <c r="C149" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D149" t="n">
-        <v>48.4034</v>
-      </c>
-      <c r="E149" t="n">
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>48.403399999999998</v>
+      </c>
+      <c r="E149">
         <v>-117.1836</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>152</v>
       </c>
       <c r="B150" t="s">
         <v>214</v>
       </c>
-      <c r="C150" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D150" t="n">
-        <v>48.4034</v>
-      </c>
-      <c r="E150" t="n">
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>48.403399999999998</v>
+      </c>
+      <c r="E150">
         <v>-117.1844</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>153</v>
       </c>
       <c r="B151" t="s">
         <v>214</v>
       </c>
-      <c r="C151" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D151" t="n">
-        <v>48.4033</v>
-      </c>
-      <c r="E151" t="n">
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>48.403300000000002</v>
+      </c>
+      <c r="E151">
         <v>-117.1853</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>154</v>
       </c>
       <c r="B152" t="s">
         <v>214</v>
       </c>
-      <c r="C152" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D152" t="n">
-        <v>48.4032</v>
-      </c>
-      <c r="E152" t="n">
+      <c r="C152">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <v>48.403199999999998</v>
+      </c>
+      <c r="E152">
         <v>-117.1858</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>155</v>
       </c>
       <c r="B153" t="s">
         <v>214</v>
       </c>
-      <c r="C153" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D153" t="n">
-        <v>48.4042</v>
-      </c>
-      <c r="E153" t="n">
+      <c r="C153">
+        <v>5</v>
+      </c>
+      <c r="D153">
+        <v>48.404200000000003</v>
+      </c>
+      <c r="E153">
         <v>-117.1866</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>156</v>
       </c>
       <c r="B154" t="s">
         <v>214</v>
       </c>
-      <c r="C154" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D154" t="n">
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154">
         <v>48.4039</v>
       </c>
-      <c r="E154" t="n">
-        <v>-117.1868</v>
-      </c>
-    </row>
-    <row r="155">
+      <c r="E154">
+        <v>-117.18680000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>157</v>
       </c>
       <c r="B155" t="s">
         <v>214</v>
       </c>
-      <c r="C155" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D155" t="n">
-        <v>48.4037</v>
-      </c>
-      <c r="E155" t="n">
-        <v>-117.1839</v>
-      </c>
-    </row>
-    <row r="156">
+      <c r="C155">
+        <v>7</v>
+      </c>
+      <c r="D155">
+        <v>48.403700000000001</v>
+      </c>
+      <c r="E155">
+        <v>-117.18389999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>158</v>
       </c>
       <c r="B156" t="s">
         <v>215</v>
       </c>
-      <c r="C156" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D156" t="n">
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
         <v>46.1873</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>-116.5671</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>159</v>
       </c>
       <c r="B157" t="s">
         <v>215</v>
       </c>
-      <c r="C157" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D157" t="n">
-        <v>46.1874</v>
-      </c>
-      <c r="E157" t="n">
-        <v>-116.5666</v>
-      </c>
-    </row>
-    <row r="158">
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>46.187399999999997</v>
+      </c>
+      <c r="E157">
+        <v>-116.56659999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>160</v>
       </c>
       <c r="B158" t="s">
         <v>215</v>
       </c>
-      <c r="C158" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D158" t="n">
-        <v>46.1862</v>
-      </c>
-      <c r="E158" t="n">
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>46.186199999999999</v>
+      </c>
+      <c r="E158">
         <v>-116.5642</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>161</v>
       </c>
       <c r="B159" t="s">
         <v>215</v>
       </c>
-      <c r="C159" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D159" t="n">
+      <c r="C159">
+        <v>4</v>
+      </c>
+      <c r="D159">
         <v>46.1873</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>-116.5641</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>162</v>
       </c>
       <c r="B160" t="s">
         <v>215</v>
       </c>
-      <c r="C160" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D160" t="n">
-        <v>46.1865</v>
-      </c>
-      <c r="E160" t="n">
+      <c r="C160">
+        <v>5</v>
+      </c>
+      <c r="D160">
+        <v>46.186500000000002</v>
+      </c>
+      <c r="E160">
         <v>-116.5628</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>163</v>
       </c>
       <c r="B161" t="s">
         <v>215</v>
       </c>
-      <c r="C161" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D161" t="n">
-        <v>46.1862</v>
-      </c>
-      <c r="E161" t="n">
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>46.186199999999999</v>
+      </c>
+      <c r="E161">
         <v>-116.5621</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>164</v>
       </c>
       <c r="B162" t="s">
         <v>215</v>
       </c>
-      <c r="C162" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D162" t="n">
-        <v>46.1856</v>
-      </c>
-      <c r="E162" t="n">
+      <c r="C162">
+        <v>7</v>
+      </c>
+      <c r="D162">
+        <v>46.185600000000001</v>
+      </c>
+      <c r="E162">
         <v>-116.5608</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>165</v>
       </c>
       <c r="B163" t="s">
         <v>216</v>
       </c>
-      <c r="C163" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D163" t="n">
-        <v>47.9378</v>
-      </c>
-      <c r="E163" t="n">
-        <v>-117.897</v>
-      </c>
-    </row>
-    <row r="164">
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>47.937800000000003</v>
+      </c>
+      <c r="E163">
+        <v>-117.89700000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>166</v>
       </c>
       <c r="B164" t="s">
         <v>216</v>
       </c>
-      <c r="C164" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D164" t="n">
-        <v>47.9384</v>
-      </c>
-      <c r="E164" t="n">
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>47.938400000000001</v>
+      </c>
+      <c r="E164">
         <v>-117.8972</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>167</v>
       </c>
       <c r="B165" t="s">
         <v>216</v>
       </c>
-      <c r="C165" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D165" t="n">
-        <v>47.9384</v>
-      </c>
-      <c r="E165" t="n">
-        <v>-117.8971</v>
-      </c>
-    </row>
-    <row r="166">
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165">
+        <v>47.938400000000001</v>
+      </c>
+      <c r="E165">
+        <v>-117.89709999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>168</v>
       </c>
       <c r="B166" t="s">
         <v>216</v>
       </c>
-      <c r="C166" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D166" t="n">
-        <v>47.9386</v>
-      </c>
-      <c r="E166" t="n">
+      <c r="C166">
+        <v>4</v>
+      </c>
+      <c r="D166">
+        <v>47.938600000000001</v>
+      </c>
+      <c r="E166">
         <v>-117.8974</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>169</v>
       </c>
       <c r="B167" t="s">
         <v>216</v>
       </c>
-      <c r="C167" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D167" t="n">
-        <v>47.9389</v>
-      </c>
-      <c r="E167" t="n">
+      <c r="C167">
+        <v>5</v>
+      </c>
+      <c r="D167">
+        <v>47.938899999999997</v>
+      </c>
+      <c r="E167">
         <v>-117.898</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>170</v>
       </c>
       <c r="B168" t="s">
         <v>216</v>
       </c>
-      <c r="C168" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D168" t="n">
-        <v>47.9389</v>
-      </c>
-      <c r="E168" t="n">
+      <c r="C168">
+        <v>6</v>
+      </c>
+      <c r="D168">
+        <v>47.938899999999997</v>
+      </c>
+      <c r="E168">
         <v>-117.8984</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>171</v>
       </c>
       <c r="B169" t="s">
         <v>216</v>
       </c>
-      <c r="C169" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D169" t="n">
-        <v>47.9379</v>
-      </c>
-      <c r="E169" t="n">
+      <c r="C169">
+        <v>7</v>
+      </c>
+      <c r="D169">
+        <v>47.937899999999999</v>
+      </c>
+      <c r="E169">
         <v>-117.8985</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>172</v>
       </c>
       <c r="B170" t="s">
         <v>217</v>
       </c>
-      <c r="C170" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D170" t="n">
-        <v>46.8863</v>
-      </c>
-      <c r="E170" t="n">
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>46.886299999999999</v>
+      </c>
+      <c r="E170">
         <v>-113.4928</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>173</v>
       </c>
       <c r="B171" t="s">
         <v>217</v>
       </c>
-      <c r="C171" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D171" t="n">
-        <v>46.8866</v>
-      </c>
-      <c r="E171" t="n">
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>46.886600000000001</v>
+      </c>
+      <c r="E171">
         <v>-113.492</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>174</v>
       </c>
       <c r="B172" t="s">
         <v>217</v>
       </c>
-      <c r="C172" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D172" t="n">
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
         <v>46.8872</v>
       </c>
-      <c r="E172" t="n">
-        <v>-113.4916</v>
-      </c>
-    </row>
-    <row r="173">
+      <c r="E172">
+        <v>-113.49160000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>175</v>
       </c>
       <c r="B173" t="s">
         <v>217</v>
       </c>
-      <c r="C173" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D173" t="n">
-        <v>46.8876</v>
-      </c>
-      <c r="E173" t="n">
+      <c r="C173">
+        <v>4</v>
+      </c>
+      <c r="D173">
+        <v>46.887599999999999</v>
+      </c>
+      <c r="E173">
         <v>-113.492</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>176</v>
       </c>
       <c r="B174" t="s">
         <v>217</v>
       </c>
-      <c r="C174" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D174" t="n">
-        <v>46.8884</v>
-      </c>
-      <c r="E174" t="n">
+      <c r="C174">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>46.888399999999997</v>
+      </c>
+      <c r="E174">
         <v>-113.492</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>177</v>
       </c>
       <c r="B175" t="s">
         <v>217</v>
       </c>
-      <c r="C175" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D175" t="n">
-        <v>46.8882</v>
-      </c>
-      <c r="E175" t="n">
-        <v>-113.4929</v>
-      </c>
-    </row>
-    <row r="176">
+      <c r="C175">
+        <v>6</v>
+      </c>
+      <c r="D175">
+        <v>46.888199999999998</v>
+      </c>
+      <c r="E175">
+        <v>-113.49290000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>178</v>
       </c>
       <c r="B176" t="s">
         <v>217</v>
       </c>
-      <c r="C176" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D176" t="n">
-        <v>46.8871</v>
-      </c>
-      <c r="E176" t="n">
+      <c r="C176">
+        <v>7</v>
+      </c>
+      <c r="D176">
+        <v>46.887099999999997</v>
+      </c>
+      <c r="E176">
         <v>-113.4926</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>179</v>
       </c>
       <c r="B177" t="s">
         <v>218</v>
       </c>
-      <c r="C177" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D177" t="n">
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
         <v>48.0154</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E177">
         <v>-114.6808</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>180</v>
       </c>
       <c r="B178" t="s">
         <v>218</v>
       </c>
-      <c r="C178" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D178" t="n">
-        <v>48.0158</v>
-      </c>
-      <c r="E178" t="n">
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>48.015799999999999</v>
+      </c>
+      <c r="E178">
         <v>-114.6799</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>181</v>
       </c>
       <c r="B179" t="s">
         <v>218</v>
       </c>
-      <c r="C179" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D179" t="n">
-        <v>48.0163</v>
-      </c>
-      <c r="E179" t="n">
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>48.016300000000001</v>
+      </c>
+      <c r="E179">
         <v>-114.6797</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>182</v>
       </c>
       <c r="B180" t="s">
         <v>218</v>
       </c>
-      <c r="C180" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D180" t="n">
-        <v>48.0158</v>
-      </c>
-      <c r="E180" t="n">
-        <v>-114.6804</v>
-      </c>
-    </row>
-    <row r="181">
+      <c r="C180">
+        <v>4</v>
+      </c>
+      <c r="D180">
+        <v>48.015799999999999</v>
+      </c>
+      <c r="E180">
+        <v>-114.68040000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>183</v>
       </c>
       <c r="B181" t="s">
         <v>218</v>
       </c>
-      <c r="C181" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D181" t="n">
-        <v>48.0162</v>
-      </c>
-      <c r="E181" t="n">
-        <v>-114.6822</v>
-      </c>
-    </row>
-    <row r="182">
+      <c r="C181">
+        <v>5</v>
+      </c>
+      <c r="D181">
+        <v>48.016199999999998</v>
+      </c>
+      <c r="E181">
+        <v>-114.68219999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>184</v>
       </c>
       <c r="B182" t="s">
         <v>218</v>
       </c>
-      <c r="C182" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D182" t="n">
-        <v>48.0158</v>
-      </c>
-      <c r="E182" t="n">
-        <v>-114.6822</v>
-      </c>
-    </row>
-    <row r="183">
+      <c r="C182">
+        <v>6</v>
+      </c>
+      <c r="D182">
+        <v>48.015799999999999</v>
+      </c>
+      <c r="E182">
+        <v>-114.68219999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>185</v>
       </c>
       <c r="B183" t="s">
         <v>218</v>
       </c>
-      <c r="C183" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D183" t="n">
-        <v>48.0146</v>
-      </c>
-      <c r="E183" t="n">
+      <c r="C183">
+        <v>7</v>
+      </c>
+      <c r="D183">
+        <v>48.014600000000002</v>
+      </c>
+      <c r="E183">
         <v>-114.6811</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>186</v>
       </c>
       <c r="B184" t="s">
         <v>219</v>
       </c>
-      <c r="C184" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D184" t="n">
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
         <v>48.5749</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E184">
         <v>-114.6934</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>187</v>
       </c>
       <c r="B185" t="s">
         <v>219</v>
       </c>
-      <c r="C185" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D185" t="n">
-        <v>48.578</v>
-      </c>
-      <c r="E185" t="n">
-        <v>-114.6898</v>
-      </c>
-    </row>
-    <row r="186">
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>48.578000000000003</v>
+      </c>
+      <c r="E185">
+        <v>-114.68980000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>188</v>
       </c>
       <c r="B186" t="s">
         <v>219</v>
       </c>
-      <c r="C186" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D186" t="n">
-        <v>48.5784</v>
-      </c>
-      <c r="E186" t="n">
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>48.578400000000002</v>
+      </c>
+      <c r="E186">
         <v>-114.6737</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>189</v>
       </c>
       <c r="B187" t="s">
         <v>219</v>
       </c>
-      <c r="C187" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D187" t="n">
-        <v>48.5791</v>
-      </c>
-      <c r="E187" t="n">
-        <v>-114.6736</v>
-      </c>
-    </row>
-    <row r="188">
+      <c r="C187">
+        <v>4</v>
+      </c>
+      <c r="D187">
+        <v>48.579099999999997</v>
+      </c>
+      <c r="E187">
+        <v>-114.67359999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>190</v>
       </c>
       <c r="B188" t="s">
         <v>219</v>
       </c>
-      <c r="C188" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D188" t="n">
+      <c r="C188">
+        <v>5</v>
+      </c>
+      <c r="D188">
         <v>48.5777</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E188">
         <v>-114.6739</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>191</v>
       </c>
       <c r="B189" t="s">
         <v>219</v>
       </c>
-      <c r="C189" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D189" t="n">
-        <v>48.5773</v>
-      </c>
-      <c r="E189" t="n">
+      <c r="C189">
+        <v>6</v>
+      </c>
+      <c r="D189">
+        <v>48.577300000000001</v>
+      </c>
+      <c r="E189">
         <v>-114.673</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>192</v>
       </c>
       <c r="B190" t="s">
         <v>219</v>
       </c>
-      <c r="C190" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D190" t="n">
-        <v>48.5771</v>
-      </c>
-      <c r="E190" t="n">
+      <c r="C190">
+        <v>7</v>
+      </c>
+      <c r="D190">
+        <v>48.577100000000002</v>
+      </c>
+      <c r="E190">
         <v>-114.6738</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>